--- a/CP_16.6mW_polarimeter.xlsx
+++ b/CP_16.6mW_polarimeter.xlsx
@@ -16,6 +16,8 @@
     <sheet name="measured" sheetId="1" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" r:id="rId2"/>
     <sheet name="rho_mat" sheetId="3" r:id="rId3"/>
+    <sheet name="rho_min" sheetId="4" r:id="rId7"/>
+    <sheet name="rho_max" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="10">
   <si>
     <t>s0</t>
   </si>
@@ -88,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="220">
     <border>
       <left/>
       <right/>
@@ -119,11 +121,213 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -142,6 +346,208 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,22 +1657,22 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="214" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1315,19 +1721,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.19712513435920798</v>
+        <v>0.197125134359208</v>
       </c>
       <c r="C4">
-        <v>0.80287486564079202</v>
+        <v>0.80287486564079191</v>
       </c>
       <c r="D4">
-        <v>-0.26262667603843354</v>
+        <v>-0.26262667603843348</v>
       </c>
       <c r="E4">
         <v>-0.29882109114846855</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -1335,13 +1741,13 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.36971967045748438</v>
+        <v>0.36971967045748444</v>
       </c>
       <c r="C5">
         <v>0.63028032954251556</v>
       </c>
       <c r="D5">
-        <v>-0.23567565231848195</v>
+        <v>-0.23567565231848192</v>
       </c>
       <c r="E5">
         <v>-0.42128852631836822</v>
@@ -1361,7 +1767,7 @@
         <v>0.51566689919264319</v>
       </c>
       <c r="D6">
-        <v>-0.11099791392217156</v>
+        <v>-0.11099791392217158</v>
       </c>
       <c r="E6">
         <v>-0.48727200939306281</v>
@@ -1475,7 +1881,7 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.065348071014497314</v>
+        <v>0.065348071014497328</v>
       </c>
       <c r="C12">
         <v>0.93465192898550264</v>
@@ -1495,7 +1901,7 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.21487636310143043</v>
+        <v>0.21487636310143046</v>
       </c>
       <c r="C13">
         <v>0.78512363689856945</v>
@@ -1504,7 +1910,7 @@
         <v>-0.28042056659921438</v>
       </c>
       <c r="E13">
-        <v>0.30011467347776966</v>
+        <v>0.3001146734777696</v>
       </c>
       <c r="F13">
         <v>0.99999999999999978</v>
@@ -1541,7 +1947,7 @@
         <v>0.49499720326586039</v>
       </c>
       <c r="D15">
-        <v>-0.10972222409935731</v>
+        <v>-0.10972222409935729</v>
       </c>
       <c r="E15">
         <v>0.48778684409380491</v>
@@ -1653,4 +2059,838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.10175205709792243</v>
+      </c>
+      <c r="C2">
+        <v>0.89824794290207766</v>
+      </c>
+      <c r="D2">
+        <v>-0.0065757803645066174</v>
+      </c>
+      <c r="E2">
+        <v>0.027449599740522294</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.13798760510086441</v>
+      </c>
+      <c r="C3">
+        <v>0.86201239489913561</v>
+      </c>
+      <c r="D3">
+        <v>-0.13713989959826944</v>
+      </c>
+      <c r="E3">
+        <v>-0.11151274664303727</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.25544078274679349</v>
+      </c>
+      <c r="C4">
+        <v>0.74455921725320662</v>
+      </c>
+      <c r="D4">
+        <v>-0.21206043025684346</v>
+      </c>
+      <c r="E4">
+        <v>-0.24128595813127063</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.39517371228991705</v>
+      </c>
+      <c r="C5">
+        <v>0.60482628771008307</v>
+      </c>
+      <c r="D5">
+        <v>-0.1896295766440827</v>
+      </c>
+      <c r="E5">
+        <v>-0.33897759104451547</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.48739018448041027</v>
+      </c>
+      <c r="C6">
+        <v>0.51260981551958962</v>
+      </c>
+      <c r="D6">
+        <v>-0.089338879404745442</v>
+      </c>
+      <c r="E6">
+        <v>-0.39219057139218494</v>
+      </c>
+      <c r="F6">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.49257577532103869</v>
+      </c>
+      <c r="C7">
+        <v>0.50742422467896131</v>
+      </c>
+      <c r="D7">
+        <v>0.044146846062254011</v>
+      </c>
+      <c r="E7">
+        <v>-0.39826593212311523</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.40375077069942877</v>
+      </c>
+      <c r="C8">
+        <v>0.59624922930057123</v>
+      </c>
+      <c r="D8">
+        <v>0.14762864880643167</v>
+      </c>
+      <c r="E8">
+        <v>-0.35454124319654845</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.26878299797580446</v>
+      </c>
+      <c r="C9">
+        <v>0.73121700202419548</v>
+      </c>
+      <c r="D9">
+        <v>0.17110979333065468</v>
+      </c>
+      <c r="E9">
+        <v>-0.27151877030530536</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.15126976246911178</v>
+      </c>
+      <c r="C10">
+        <v>0.84873023753088828</v>
+      </c>
+      <c r="D10">
+        <v>0.10471132793586194</v>
+      </c>
+      <c r="E10">
+        <v>-0.15914276712719105</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.10195184483067134</v>
+      </c>
+      <c r="C11">
+        <v>0.89804815516932868</v>
+      </c>
+      <c r="D11">
+        <v>-0.027298730454168488</v>
+      </c>
+      <c r="E11">
+        <v>-0.021722089799595144</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.14869508965833422</v>
+      </c>
+      <c r="C12">
+        <v>0.85130491034166578</v>
+      </c>
+      <c r="D12">
+        <v>-0.15985552296083849</v>
+      </c>
+      <c r="E12">
+        <v>0.11977375466682297</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.26781780891151341</v>
+      </c>
+      <c r="C13">
+        <v>0.73218219108848659</v>
+      </c>
+      <c r="D13">
+        <v>-0.22835238175094452</v>
+      </c>
+      <c r="E13">
+        <v>0.24438970835190182</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.40999229383721336</v>
+      </c>
+      <c r="C14">
+        <v>0.59000770616278664</v>
+      </c>
+      <c r="D14">
+        <v>-0.20149178189256522</v>
+      </c>
+      <c r="E14">
+        <v>0.3414501453628499</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.5040503136530351</v>
+      </c>
+      <c r="C15">
+        <v>0.4959496863469649</v>
+      </c>
+      <c r="D15">
+        <v>-0.088832196454909459</v>
+      </c>
+      <c r="E15">
+        <v>0.39491704728323862</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.50410689069681258</v>
+      </c>
+      <c r="C16">
+        <v>0.49589310930318742</v>
+      </c>
+      <c r="D16">
+        <v>0.046448830827355569</v>
+      </c>
+      <c r="E16">
+        <v>0.39768818558885366</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.41452249512373757</v>
+      </c>
+      <c r="C17">
+        <v>0.58547750487626238</v>
+      </c>
+      <c r="D17">
+        <v>0.15201262640044458</v>
+      </c>
+      <c r="E17">
+        <v>0.35303866972439696</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.27829056316663581</v>
+      </c>
+      <c r="C18">
+        <v>0.72170943683336419</v>
+      </c>
+      <c r="D18">
+        <v>0.17859272382538791</v>
+      </c>
+      <c r="E18">
+        <v>0.26977396936684583</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.15241825318350369</v>
+      </c>
+      <c r="C19">
+        <v>0.84758174681649634</v>
+      </c>
+      <c r="D19">
+        <v>0.11064804073844839</v>
+      </c>
+      <c r="E19">
+        <v>0.15163757188995072</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.10160249830240942</v>
+      </c>
+      <c r="C20">
+        <v>0.89839750169759058</v>
+      </c>
+      <c r="D20">
+        <v>-0.012872261587301235</v>
+      </c>
+      <c r="E20">
+        <v>0.021251777309605303</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0012511435290904109</v>
+      </c>
+      <c r="C2">
+        <v>0.99874885647090961</v>
+      </c>
+      <c r="D2">
+        <v>-0.0082352288207749764</v>
+      </c>
+      <c r="E2">
+        <v>0.03437671612665661</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.050695970049746394</v>
+      </c>
+      <c r="C3">
+        <v>0.94930402995025354</v>
+      </c>
+      <c r="D3">
+        <v>-0.17020828685615477</v>
+      </c>
+      <c r="E3">
+        <v>-0.13840168779717638</v>
+      </c>
+      <c r="F3">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.19712513464556097</v>
+      </c>
+      <c r="C4">
+        <v>0.80287486535443897</v>
+      </c>
+      <c r="D4">
+        <v>-0.26262667579013027</v>
+      </c>
+      <c r="E4">
+        <v>-0.29882109086594749</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.36971967056557414</v>
+      </c>
+      <c r="C5">
+        <v>0.6302803294344258</v>
+      </c>
+      <c r="D5">
+        <v>-0.23567565212295022</v>
+      </c>
+      <c r="E5">
+        <v>-0.42128852596885136</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.4843331008158922</v>
+      </c>
+      <c r="C6">
+        <v>0.51566689918410769</v>
+      </c>
+      <c r="D6">
+        <v>-0.11099791386169733</v>
+      </c>
+      <c r="E6">
+        <v>-0.48727200912761037</v>
+      </c>
+      <c r="F6">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.49073764230674005</v>
+      </c>
+      <c r="C7">
+        <v>0.50926235769326</v>
+      </c>
+      <c r="D7">
+        <v>0.055076980686835829</v>
+      </c>
+      <c r="E7">
+        <v>-0.4968709434154655</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.37845056996600768</v>
+      </c>
+      <c r="C8">
+        <v>0.62154943003399232</v>
+      </c>
+      <c r="D8">
+        <v>0.1864345122502056</v>
+      </c>
+      <c r="E8">
+        <v>-0.44773642705758043</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>0.20772955137034738</v>
+      </c>
+      <c r="C9">
+        <v>0.79227044862965257</v>
+      </c>
+      <c r="D9">
+        <v>0.21629177622692419</v>
+      </c>
+      <c r="E9">
+        <v>-0.34321400292266979</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.061203141469662152</v>
+      </c>
+      <c r="C10">
+        <v>0.9387968585303379</v>
+      </c>
+      <c r="D10">
+        <v>0.1317551413841094</v>
+      </c>
+      <c r="E10">
+        <v>-0.20024459813884465</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>0.001909374715063373</v>
+      </c>
+      <c r="C11">
+        <v>0.99809062528493664</v>
+      </c>
+      <c r="D11">
+        <v>-0.034159790831381931</v>
+      </c>
+      <c r="E11">
+        <v>-0.027181558688981422</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.065348071297809132</v>
+      </c>
+      <c r="C12">
+        <v>0.93465192870219094</v>
+      </c>
+      <c r="D12">
+        <v>-0.19778121319468822</v>
+      </c>
+      <c r="E12">
+        <v>0.1481900535441027</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>0.21487636340786598</v>
+      </c>
+      <c r="C13">
+        <v>0.78512363659213402</v>
+      </c>
+      <c r="D13">
+        <v>-0.28042056629783085</v>
+      </c>
+      <c r="E13">
+        <v>0.30011467315522566</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.38930491379431426</v>
+      </c>
+      <c r="C14">
+        <v>0.6106950862056858</v>
+      </c>
+      <c r="D14">
+        <v>-0.247802672873318</v>
+      </c>
+      <c r="E14">
+        <v>0.41992908037813764</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>0.50500279673189175</v>
+      </c>
+      <c r="C15">
+        <v>0.49499720326810831</v>
+      </c>
+      <c r="D15">
+        <v>-0.10972222405007093</v>
+      </c>
+      <c r="E15">
+        <v>0.48778684387477178</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>0.50512832344926251</v>
+      </c>
+      <c r="C16">
+        <v>0.49487167655073755</v>
+      </c>
+      <c r="D16">
+        <v>0.058001209651775895</v>
+      </c>
+      <c r="E16">
+        <v>0.49659798572989566</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>0.3914611559334199</v>
+      </c>
+      <c r="C17">
+        <v>0.60853884406657999</v>
+      </c>
+      <c r="D17">
+        <v>0.19302475870012303</v>
+      </c>
+      <c r="E17">
+        <v>0.44828647230822971</v>
+      </c>
+      <c r="F17">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>0.21735853277377476</v>
+      </c>
+      <c r="C18">
+        <v>0.78264146722622518</v>
+      </c>
+      <c r="D18">
+        <v>0.22767506074121016</v>
+      </c>
+      <c r="E18">
+        <v>0.34391549412755357</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>0.060058368611865906</v>
+      </c>
+      <c r="C19">
+        <v>0.93994163138813402</v>
+      </c>
+      <c r="D19">
+        <v>0.14004958545211904</v>
+      </c>
+      <c r="E19">
+        <v>0.19193090939904967</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>0.00096953174798121867</v>
+      </c>
+      <c r="C20">
+        <v>0.9990304682520188</v>
+      </c>
+      <c r="D20">
+        <v>-0.016123722412921596</v>
+      </c>
+      <c r="E20">
+        <v>0.026619856642700692</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/CP_16.6mW_polarimeter.xlsx
+++ b/CP_16.6mW_polarimeter.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="10">
   <si>
     <t>s0</t>
   </si>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="220">
+  <borders count="226">
     <border>
       <left/>
       <right/>
@@ -323,11 +323,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -548,6 +554,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,27 +1664,27 @@
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
-    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="214" t="s">
+      <c r="D1" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="214" t="s">
+      <c r="E1" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="220" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1681,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0020022883295552044</v>
+        <v>0.0020022882354434899</v>
       </c>
       <c r="C2">
-        <v>0.99799771167044482</v>
+        <v>0.9979977117175125</v>
       </c>
       <c r="D2">
-        <v>-0.0082228260869559311</v>
+        <v>-0.0082228260881221007</v>
       </c>
       <c r="E2">
-        <v>0.034324942791759551</v>
+        <v>0.03432494279662697</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.99999999990591193</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -1701,19 +1713,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.050695969765579933</v>
+        <v>0.050695970364712011</v>
       </c>
       <c r="C3">
-        <v>0.94930403023442</v>
+        <v>0.94930402966017779</v>
       </c>
       <c r="D3">
-        <v>-0.17020828696381246</v>
+        <v>-0.17020828674161359</v>
       </c>
       <c r="E3">
-        <v>-0.13840168788471655</v>
+        <v>-0.13840168770406397</v>
       </c>
       <c r="F3">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000497797</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -1721,19 +1733,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.197125134359208</v>
+        <v>0.19712513476771309</v>
       </c>
       <c r="C4">
-        <v>0.80287486564079191</v>
+        <v>0.80287486525273799</v>
       </c>
       <c r="D4">
-        <v>-0.26262667603843348</v>
+        <v>-0.26262667569268966</v>
       </c>
       <c r="E4">
-        <v>-0.29882109114846855</v>
+        <v>-0.29882109075496099</v>
       </c>
       <c r="F4">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000409024</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -1741,19 +1753,19 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.36971967045748444</v>
+        <v>0.36971967064439692</v>
       </c>
       <c r="C5">
-        <v>0.63028032954251556</v>
+        <v>0.63028032938419098</v>
       </c>
       <c r="D5">
-        <v>-0.23567565231848192</v>
+        <v>-0.23567565200589763</v>
       </c>
       <c r="E5">
-        <v>-0.42128852631836822</v>
+        <v>-0.42128852575882303</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>1.0000000000571756</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
@@ -1761,19 +1773,19 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.48433310080735681</v>
+        <v>0.48433310084304249</v>
       </c>
       <c r="C6">
-        <v>0.51566689919264319</v>
+        <v>0.51566689918744801</v>
       </c>
       <c r="D6">
-        <v>-0.11099791392217158</v>
+        <v>-0.11099791377736651</v>
       </c>
       <c r="E6">
-        <v>-0.48727200939306281</v>
+        <v>-0.48727200875565857</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>1.000000000060981</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
@@ -1781,19 +1793,19 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.49073764229889871</v>
+        <v>0.49073764238426909</v>
       </c>
       <c r="C7">
-        <v>0.50926235770110129</v>
+        <v>0.50926235775349982</v>
       </c>
       <c r="D7">
-        <v>0.055076980733474147</v>
+        <v>0.055076980635785387</v>
       </c>
       <c r="E7">
-        <v>-0.49687094383651792</v>
+        <v>-0.49687094295359391</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.0000000002755378</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
@@ -1801,19 +1813,19 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.37944088528942271</v>
+        <v>0.37944088561500167</v>
       </c>
       <c r="C8">
-        <v>0.62055911471057734</v>
+        <v>0.6205591143114515</v>
       </c>
       <c r="D8">
-        <v>0.18491555034110282</v>
+        <v>0.18491554978529506</v>
       </c>
       <c r="E8">
-        <v>-0.44408852640973517</v>
+        <v>-0.44408852507493535</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99999999985290633</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
@@ -1821,19 +1833,19 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.2103289094730062</v>
+        <v>0.21032890933375947</v>
       </c>
       <c r="C9">
-        <v>0.7896710905269938</v>
+        <v>0.78967109059938123</v>
       </c>
       <c r="D9">
-        <v>0.21436814767087289</v>
+        <v>0.21436814774917348</v>
       </c>
       <c r="E9">
-        <v>-0.34016156945351167</v>
+        <v>-0.34016156957776245</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99999999986628141</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
@@ -1841,19 +1853,19 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.063510392645017705</v>
+        <v>0.063510393352075423</v>
       </c>
       <c r="C10">
-        <v>0.93648960735498232</v>
+        <v>0.93648960659084035</v>
       </c>
       <c r="D10">
-        <v>0.13106235564759391</v>
+        <v>0.1310623554324353</v>
       </c>
       <c r="E10">
-        <v>-0.19919168589612288</v>
+        <v>-0.19919168556910627</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.99999999988583155</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -1861,19 +1873,19 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.0023337222871366477</v>
+        <v>0.002333722923338109</v>
       </c>
       <c r="C11">
-        <v>0.99766627771286331</v>
+        <v>0.99766627693966581</v>
       </c>
       <c r="D11">
-        <v>-0.034130688448068582</v>
+        <v>-0.034130688402759839</v>
       </c>
       <c r="E11">
-        <v>-0.027158401400228519</v>
+        <v>-0.027158401363457783</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99999999972600784</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -1881,19 +1893,19 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.065348071014497328</v>
+        <v>0.065348071598512997</v>
       </c>
       <c r="C12">
-        <v>0.93465192898550264</v>
+        <v>0.93465192841979183</v>
       </c>
       <c r="D12">
-        <v>-0.19778121332362025</v>
+        <v>-0.19778121306200591</v>
       </c>
       <c r="E12">
-        <v>0.14819005364070792</v>
+        <v>0.14819005344474179</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1.0000000000366098</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
@@ -1901,19 +1913,19 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.21487636310143046</v>
+        <v>0.21487636350782535</v>
       </c>
       <c r="C13">
-        <v>0.78512363689856945</v>
+        <v>0.78512363650685491</v>
       </c>
       <c r="D13">
-        <v>-0.28042056659921438</v>
+        <v>-0.28042056620599554</v>
       </c>
       <c r="E13">
-        <v>0.3001146734777696</v>
+        <v>0.3001146730568558</v>
       </c>
       <c r="F13">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000293605</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
@@ -1921,19 +1933,19 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.3893049137106856</v>
+        <v>0.38930491387103427</v>
       </c>
       <c r="C14">
-        <v>0.61069508628931446</v>
+        <v>0.61069508614423462</v>
       </c>
       <c r="D14">
-        <v>-0.24780267306051518</v>
+        <v>-0.2478026727179661</v>
       </c>
       <c r="E14">
-        <v>0.41992908069529689</v>
+        <v>0.41992908011370211</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>1.0000000000305378</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
@@ -1941,19 +1953,19 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.5050027967341395</v>
+        <v>0.50500279673654958</v>
       </c>
       <c r="C15">
-        <v>0.49499720326586039</v>
+        <v>0.49499720328150543</v>
       </c>
       <c r="D15">
-        <v>-0.10972222409935729</v>
+        <v>-0.10972222395363197</v>
       </c>
       <c r="E15">
-        <v>0.48778684409380491</v>
+        <v>0.48778684344370915</v>
       </c>
       <c r="F15">
-        <v>0.99999999999999978</v>
+        <v>1.0000000000361098</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
@@ -1961,19 +1973,19 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50512832345410608</v>
+        <v>0.50512832362081028</v>
       </c>
       <c r="C16">
-        <v>0.49487167654589398</v>
+        <v>0.49487167673113452</v>
       </c>
       <c r="D16">
-        <v>0.058001209706528722</v>
+        <v>0.058001209600599346</v>
       </c>
       <c r="E16">
-        <v>0.49659798620034579</v>
+        <v>0.49659798529047017</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>1.0000000007038894</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
@@ -1981,19 +1993,19 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.39281472687669061</v>
+        <v>0.39281472680721097</v>
       </c>
       <c r="C17">
-        <v>0.60718527312330939</v>
+        <v>0.60718527314097659</v>
       </c>
       <c r="D17">
-        <v>0.19061757713342006</v>
+        <v>0.19061757721089403</v>
       </c>
       <c r="E17">
-        <v>0.44269596184724191</v>
+        <v>0.44269596202716244</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99999999989637511</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
@@ -2001,19 +2013,19 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.22176227093766648</v>
+        <v>0.2217622708206422</v>
       </c>
       <c r="C18">
-        <v>0.77823772906233346</v>
+        <v>0.77823772914283884</v>
       </c>
       <c r="D18">
-        <v>0.22412773499388819</v>
+        <v>0.22412773507344533</v>
       </c>
       <c r="E18">
-        <v>0.33855706671240365</v>
+        <v>0.33855706683257825</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99999999992696198</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -2021,19 +2033,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.064429928859621954</v>
+        <v>0.064429928771886552</v>
       </c>
       <c r="C19">
-        <v>0.93557007114037805</v>
+        <v>0.93557007122710312</v>
       </c>
       <c r="D19">
-        <v>0.13865795720692334</v>
+        <v>0.13865795723469465</v>
       </c>
       <c r="E19">
-        <v>0.19002375291741103</v>
+        <v>0.19002375295546878</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99999999999797939</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
@@ -2041,19 +2053,19 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.0017964071856718809</v>
+        <v>0.0017964071241804453</v>
       </c>
       <c r="C20">
-        <v>0.99820359281432802</v>
+        <v>0.99820359285050775</v>
       </c>
       <c r="D20">
-        <v>-0.016097005988022554</v>
+        <v>-0.016097005989601152</v>
       </c>
       <c r="E20">
-        <v>0.026575748502991704</v>
+        <v>0.026575748505598129</v>
       </c>
       <c r="F20">
-        <v>0.99999999999999978</v>
+        <v>0.99999999994937649</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2079,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
@@ -2075,22 +2087,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="216" t="s">
+      <c r="C1" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="216" t="s">
+      <c r="D1" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="F1" s="222" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2099,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.10175205709792243</v>
+        <v>0.072536024497243057</v>
       </c>
       <c r="C2">
-        <v>0.89824794290207766</v>
+        <v>0.92746397550275694</v>
       </c>
       <c r="D2">
-        <v>-0.0065757803645066174</v>
+        <v>-0.0070581889165868793</v>
       </c>
       <c r="E2">
-        <v>0.027449599740522294</v>
+        <v>0.029463341217881019</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2119,16 +2131,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.13798760510086441</v>
+        <v>0.11166798323599048</v>
       </c>
       <c r="C3">
-        <v>0.86201239489913561</v>
+        <v>0.88833201676400952</v>
       </c>
       <c r="D3">
-        <v>-0.13713989959826944</v>
+        <v>-0.1471104706363659</v>
       </c>
       <c r="E3">
-        <v>-0.11151274664303727</v>
+        <v>-0.11962013016391367</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2139,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.25544078274679349</v>
+        <v>0.23769878305929706</v>
       </c>
       <c r="C4">
-        <v>0.74455921725320662</v>
+        <v>0.76230121694070296</v>
       </c>
       <c r="D4">
-        <v>-0.21206043025684346</v>
+        <v>-0.22744474547343943</v>
       </c>
       <c r="E4">
-        <v>-0.24128595813127063</v>
+        <v>-0.25879049319579872</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2159,16 +2171,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.39517371228991705</v>
+        <v>0.38754206701672028</v>
       </c>
       <c r="C5">
-        <v>0.60482628771008307</v>
+        <v>0.61245793298327966</v>
       </c>
       <c r="D5">
-        <v>-0.1896295766440827</v>
+        <v>-0.20343513719447234</v>
       </c>
       <c r="E5">
-        <v>-0.33897759104451547</v>
+        <v>-0.36365610238862811</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2179,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.48739018448041027</v>
+        <v>0.48647243875293789</v>
       </c>
       <c r="C6">
-        <v>0.51260981551958962</v>
+        <v>0.513527561247062</v>
       </c>
       <c r="D6">
-        <v>-0.089338879404745442</v>
+        <v>-0.095840986810163287</v>
       </c>
       <c r="E6">
-        <v>-0.39219057139218494</v>
+        <v>-0.42073430549289176</v>
       </c>
       <c r="F6">
         <v>0.99999999999999978</v>
@@ -2199,16 +2211,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.49257577532103869</v>
+        <v>0.49203319895598968</v>
       </c>
       <c r="C7">
-        <v>0.50742422467896131</v>
+        <v>0.50796680104401037</v>
       </c>
       <c r="D7">
-        <v>0.044146846062254011</v>
+        <v>0.047373180972714563</v>
       </c>
       <c r="E7">
-        <v>-0.39826593212311523</v>
+        <v>-0.42737195882871371</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2219,16 +2231,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.40375077069942877</v>
+        <v>0.39663056965470905</v>
       </c>
       <c r="C8">
-        <v>0.59624922930057123</v>
+        <v>0.603369430345291</v>
       </c>
       <c r="D8">
-        <v>0.14762864880643167</v>
+        <v>0.15854973011898493</v>
       </c>
       <c r="E8">
-        <v>-0.35454124319654845</v>
+        <v>-0.38076903689992442</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2239,16 +2251,16 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.26878299797580446</v>
+        <v>0.25166219058191602</v>
       </c>
       <c r="C9">
-        <v>0.73121700202419548</v>
+        <v>0.74833780941808403</v>
       </c>
       <c r="D9">
-        <v>0.17110979333065468</v>
+        <v>0.18377987290601241</v>
       </c>
       <c r="E9">
-        <v>-0.27151877030530536</v>
+        <v>-0.29162378217522023</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2259,16 +2271,16 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.15126976246911178</v>
+        <v>0.12556563635512438</v>
       </c>
       <c r="C10">
-        <v>0.84873023753088828</v>
+        <v>0.87443436364487559</v>
       </c>
       <c r="D10">
-        <v>0.10471132793586194</v>
+        <v>0.11242936580342167</v>
       </c>
       <c r="E10">
-        <v>-0.15914276712719105</v>
+        <v>-0.17087282467920911</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2279,16 +2291,16 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.10195184483067134</v>
+        <v>0.07277437051071621</v>
       </c>
       <c r="C11">
-        <v>0.89804815516932868</v>
+        <v>0.92722562948928389</v>
       </c>
       <c r="D11">
-        <v>-0.027298730454168488</v>
+        <v>-0.029299764742231074</v>
       </c>
       <c r="E11">
-        <v>-0.021722089799595144</v>
+        <v>-0.023314348698606577</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2299,16 +2311,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.14869508965833422</v>
+        <v>0.12323376804185643</v>
       </c>
       <c r="C12">
-        <v>0.85130491034166578</v>
+        <v>0.87676623195814363</v>
       </c>
       <c r="D12">
-        <v>-0.15985552296083849</v>
+        <v>-0.17144127870310163</v>
       </c>
       <c r="E12">
-        <v>0.11977375466682297</v>
+        <v>0.12845452740586374</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2319,16 +2331,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.26781780891151341</v>
+        <v>0.25111565225585641</v>
       </c>
       <c r="C13">
-        <v>0.73218219108848659</v>
+        <v>0.74888434774414359</v>
       </c>
       <c r="D13">
-        <v>-0.22835238175094452</v>
+        <v>-0.24477903891537425</v>
       </c>
       <c r="E13">
-        <v>0.24438970835190182</v>
+        <v>0.2619700196358461</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2339,16 +2351,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.40999229383721336</v>
+        <v>0.40350792564451227</v>
       </c>
       <c r="C14">
-        <v>0.59000770616278664</v>
+        <v>0.59649207435548768</v>
       </c>
       <c r="D14">
-        <v>-0.20149178189256522</v>
+        <v>-0.21600772677434921</v>
       </c>
       <c r="E14">
-        <v>0.3414501453628499</v>
+        <v>0.36604902201880735</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2359,16 +2371,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.5040503136530351</v>
+        <v>0.50434337070494184</v>
       </c>
       <c r="C15">
-        <v>0.4959496863469649</v>
+        <v>0.4956566292950581</v>
       </c>
       <c r="D15">
-        <v>-0.088832196454909459</v>
+        <v>-0.095259575625402063</v>
       </c>
       <c r="E15">
-        <v>0.39491704728323862</v>
+        <v>0.42349093946510258</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2379,16 +2391,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50410689069681258</v>
+        <v>0.50440730093502095</v>
       </c>
       <c r="C16">
-        <v>0.49589310930318742</v>
+        <v>0.49559269906497899</v>
       </c>
       <c r="D16">
-        <v>0.046448830827355569</v>
+        <v>0.049846463090658766</v>
       </c>
       <c r="E16">
-        <v>0.39768818558885366</v>
+        <v>0.4267782226473415</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2399,16 +2411,16 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.41452249512373757</v>
+        <v>0.40816443661198459</v>
       </c>
       <c r="C17">
-        <v>0.58547750487626238</v>
+        <v>0.59183556338801546</v>
       </c>
       <c r="D17">
-        <v>0.15201262640044458</v>
+        <v>0.16331975538810503</v>
       </c>
       <c r="E17">
-        <v>0.35303866972439696</v>
+        <v>0.37929868424246838</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2419,16 +2431,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.27829056316663581</v>
+        <v>0.26173380849289651</v>
       </c>
       <c r="C18">
-        <v>0.72170943683336419</v>
+        <v>0.7382661915071036</v>
       </c>
       <c r="D18">
-        <v>0.17859272382538791</v>
+        <v>0.19192962078893142</v>
       </c>
       <c r="E18">
-        <v>0.26977396936684583</v>
+        <v>0.28992007361916433</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2439,16 +2451,16 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.15241825318350369</v>
+        <v>0.12664706782158491</v>
       </c>
       <c r="C19">
-        <v>0.84758174681649634</v>
+        <v>0.87335293217841503</v>
       </c>
       <c r="D19">
-        <v>0.11064804073844839</v>
+        <v>0.11885195591501012</v>
       </c>
       <c r="E19">
-        <v>0.15163757188995072</v>
+        <v>0.16288062480857926</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2459,16 +2471,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.10160249830240942</v>
+        <v>0.072369969271740817</v>
       </c>
       <c r="C20">
-        <v>0.89839750169759058</v>
+        <v>0.92763003072825923</v>
       </c>
       <c r="D20">
-        <v>-0.012872261587301235</v>
+        <v>-0.013816767411102241</v>
       </c>
       <c r="E20">
-        <v>0.021251777309605303</v>
+        <v>0.022811132462459423</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2492,22 +2504,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="218" t="s">
+      <c r="C1" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="218" t="s">
+      <c r="D1" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="218" t="s">
+      <c r="F1" s="224" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2516,16 +2528,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0012511435290904109</v>
+        <v>0.0012511505865541793</v>
       </c>
       <c r="C2">
-        <v>0.99874885647090961</v>
+        <v>0.99874884941344577</v>
       </c>
       <c r="D2">
-        <v>-0.0082352288207749764</v>
+        <v>-0.0082352287042437248</v>
       </c>
       <c r="E2">
-        <v>0.03437671612665661</v>
+        <v>0.034376715640214536</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2536,19 +2548,19 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.050695970049746394</v>
+        <v>0.050695976629087029</v>
       </c>
       <c r="C3">
-        <v>0.94930402995025354</v>
+        <v>0.94930402337091302</v>
       </c>
       <c r="D3">
-        <v>-0.17020828685615477</v>
+        <v>-0.17020828436372595</v>
       </c>
       <c r="E3">
-        <v>-0.13840168779717638</v>
+        <v>-0.13840168577050446</v>
       </c>
       <c r="F3">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2556,16 +2568,16 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.19712513464556097</v>
+        <v>0.19712513875292989</v>
       </c>
       <c r="C4">
-        <v>0.80287486535443897</v>
+        <v>0.80287486124707008</v>
       </c>
       <c r="D4">
-        <v>-0.26262667579013027</v>
+        <v>-0.26262667222857794</v>
       </c>
       <c r="E4">
-        <v>-0.29882109086594749</v>
+        <v>-0.29882108681355291</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2576,16 +2588,16 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>0.36971967056557414</v>
+        <v>0.36971967246868759</v>
       </c>
       <c r="C5">
-        <v>0.6302803294344258</v>
+        <v>0.63028032753131247</v>
       </c>
       <c r="D5">
-        <v>-0.23567565212295022</v>
+        <v>-0.2356756486802393</v>
       </c>
       <c r="E5">
-        <v>-0.42128852596885136</v>
+        <v>-0.42128851981473847</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2596,16 +2608,16 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.4843331008158922</v>
+        <v>0.48433310104733374</v>
       </c>
       <c r="C6">
-        <v>0.51566689918410769</v>
+        <v>0.51566689895266615</v>
       </c>
       <c r="D6">
-        <v>-0.11099791386169733</v>
+        <v>-0.11099791222196448</v>
       </c>
       <c r="E6">
-        <v>-0.48727200912761037</v>
+        <v>-0.48727200192931369</v>
       </c>
       <c r="F6">
         <v>0.99999999999999978</v>
@@ -2616,16 +2628,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>0.49073764230674005</v>
+        <v>0.49073764240578299</v>
       </c>
       <c r="C7">
-        <v>0.50926235769326</v>
+        <v>0.50926235759421701</v>
       </c>
       <c r="D7">
-        <v>0.055076980686835829</v>
+        <v>0.055076980097894357</v>
       </c>
       <c r="E7">
-        <v>-0.4968709434154655</v>
+        <v>-0.49687093810239452</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2636,16 +2648,16 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.37845056996600768</v>
+        <v>0.37845057154661343</v>
       </c>
       <c r="C8">
-        <v>0.62154943003399232</v>
+        <v>0.62154942845338657</v>
       </c>
       <c r="D8">
-        <v>0.1864345122502056</v>
+        <v>0.18643450982584656</v>
       </c>
       <c r="E8">
-        <v>-0.44773642705758043</v>
+        <v>-0.44773642123530077</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2656,16 +2668,16 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>0.20772955137034738</v>
+        <v>0.20772955539975074</v>
       </c>
       <c r="C9">
-        <v>0.79227044862965257</v>
+        <v>0.7922704446002492</v>
       </c>
       <c r="D9">
-        <v>0.21629177622692419</v>
+        <v>0.21629177324500523</v>
       </c>
       <c r="E9">
-        <v>-0.34321400292266979</v>
+        <v>-0.34321399819093024</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2676,16 +2688,16 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>0.061203141469662152</v>
+        <v>0.061203146114496017</v>
       </c>
       <c r="C10">
-        <v>0.9387968585303379</v>
+        <v>0.93879685388550393</v>
       </c>
       <c r="D10">
-        <v>0.1317551413841094</v>
+        <v>0.13175513998943045</v>
       </c>
       <c r="E10">
-        <v>-0.20024459813884465</v>
+        <v>-0.20024459601917843</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2696,16 +2708,16 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>0.001909374715063373</v>
+        <v>0.0019093813878063898</v>
       </c>
       <c r="C11">
-        <v>0.99809062528493664</v>
+        <v>0.99809061861219361</v>
       </c>
       <c r="D11">
-        <v>-0.034159790831381931</v>
+        <v>-0.034159790373755355</v>
       </c>
       <c r="E11">
-        <v>-0.027181558688981422</v>
+        <v>-0.02718155832483974</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2716,16 +2728,16 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>0.065348071297809132</v>
+        <v>0.065348077246911482</v>
       </c>
       <c r="C12">
-        <v>0.93465192870219094</v>
+        <v>0.93465192275308862</v>
       </c>
       <c r="D12">
-        <v>-0.19778121319468822</v>
+        <v>-0.19778121048764696</v>
       </c>
       <c r="E12">
-        <v>0.1481900535441027</v>
+        <v>0.14819005151581807</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2736,16 +2748,16 @@
         <v>110</v>
       </c>
       <c r="B13">
-        <v>0.21487636340786598</v>
+        <v>0.21487636655938097</v>
       </c>
       <c r="C13">
-        <v>0.78512363659213402</v>
+        <v>0.78512363344061897</v>
       </c>
       <c r="D13">
-        <v>-0.28042056629783085</v>
+        <v>-0.28042056319829944</v>
       </c>
       <c r="E13">
-        <v>0.30011467315522566</v>
+        <v>0.30011466983801238</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2756,16 +2768,16 @@
         <v>120</v>
       </c>
       <c r="B14">
-        <v>0.38930491379431426</v>
+        <v>0.38930491509063309</v>
       </c>
       <c r="C14">
-        <v>0.6106950862056858</v>
+        <v>0.61069508490936686</v>
       </c>
       <c r="D14">
-        <v>-0.247802672873318</v>
+        <v>-0.24780266997137074</v>
       </c>
       <c r="E14">
-        <v>0.41992908037813764</v>
+        <v>0.41992907546046659</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2776,16 +2788,16 @@
         <v>130</v>
       </c>
       <c r="B15">
-        <v>0.50500279673189175</v>
+        <v>0.50500279666592751</v>
       </c>
       <c r="C15">
-        <v>0.49499720326810831</v>
+        <v>0.49499720333407249</v>
       </c>
       <c r="D15">
-        <v>-0.10972222405007093</v>
+        <v>-0.10972222260333254</v>
       </c>
       <c r="E15">
-        <v>0.48778684387477178</v>
+        <v>0.48778683744307605</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2796,16 +2808,16 @@
         <v>140</v>
       </c>
       <c r="B16">
-        <v>0.50512832344926251</v>
+        <v>0.50512832339114</v>
       </c>
       <c r="C16">
-        <v>0.49487167655073755</v>
+        <v>0.49487167660886</v>
       </c>
       <c r="D16">
-        <v>0.058001209651775895</v>
+        <v>0.058001208994412246</v>
       </c>
       <c r="E16">
-        <v>0.49659798572989566</v>
+        <v>0.49659798010164302</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2816,19 +2828,19 @@
         <v>150</v>
       </c>
       <c r="B17">
-        <v>0.3914611559334199</v>
+        <v>0.39146115783671581</v>
       </c>
       <c r="C17">
-        <v>0.60853884406657999</v>
+        <v>0.60853884216328413</v>
       </c>
       <c r="D17">
-        <v>0.19302475870012303</v>
+        <v>0.19302475531531424</v>
       </c>
       <c r="E17">
-        <v>0.44828647230822971</v>
+        <v>0.44828646444724851</v>
       </c>
       <c r="F17">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2836,16 +2848,16 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.21735853277377476</v>
+        <v>0.21735853618882897</v>
       </c>
       <c r="C18">
-        <v>0.78264146722622518</v>
+        <v>0.78264146381117106</v>
       </c>
       <c r="D18">
-        <v>0.22767506074121016</v>
+        <v>0.22767505799029505</v>
       </c>
       <c r="E18">
-        <v>0.34391549412755357</v>
+        <v>0.34391548997214755</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2856,19 +2868,19 @@
         <v>170</v>
       </c>
       <c r="B19">
-        <v>0.060058368611865906</v>
+        <v>0.060058375173397925</v>
       </c>
       <c r="C19">
-        <v>0.93994163138813402</v>
+        <v>0.93994162482660204</v>
       </c>
       <c r="D19">
-        <v>0.14004958545211904</v>
+        <v>0.14004958336334231</v>
       </c>
       <c r="E19">
-        <v>0.19193090939904967</v>
+        <v>0.19193090653648628</v>
       </c>
       <c r="F19">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2876,16 +2888,16 @@
         <v>180</v>
       </c>
       <c r="B20">
-        <v>0.00096953174798121867</v>
+        <v>0.00096953889838419791</v>
       </c>
       <c r="C20">
-        <v>0.9990304682520188</v>
+        <v>0.99903046110161575</v>
       </c>
       <c r="D20">
-        <v>-0.016123722412921596</v>
+        <v>-0.016123722181891384</v>
       </c>
       <c r="E20">
-        <v>0.026619856642700692</v>
+        <v>0.026619856261275669</v>
       </c>
       <c r="F20">
         <v>1</v>
